--- a/small_map.xlsx
+++ b/small_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarrad\Documents\Nottingham\COMP4105 Designing Intelligent Agents\dia-cw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C583E6BE-8936-4D5A-8AEB-A43627910839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B174E1DA-55CA-4CE5-A325-5A7C575D2423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{E43EC5E8-60B2-4095-9E07-A841789DB632}"/>
+    <workbookView xWindow="2820" yWindow="915" windowWidth="21600" windowHeight="13095" xr2:uid="{E43EC5E8-60B2-4095-9E07-A841789DB632}"/>
   </bookViews>
   <sheets>
     <sheet name="small_map" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="AB26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,8 +418,7 @@
     <col min="18" max="18" width="4.7109375" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="3.28515625" customWidth="1"/>
-    <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="21" max="22" width="4.140625" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
   </cols>
   <sheetData>

--- a/small_map.xlsx
+++ b/small_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarrad\Documents\Nottingham\COMP4105 Designing Intelligent Agents\dia-cw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B174E1DA-55CA-4CE5-A325-5A7C575D2423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7F5A1C-F121-4A18-941D-9FB07E2FBBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="915" windowWidth="21600" windowHeight="13095" xr2:uid="{E43EC5E8-60B2-4095-9E07-A841789DB632}"/>
+    <workbookView xWindow="13440" yWindow="1215" windowWidth="21600" windowHeight="13095" xr2:uid="{E43EC5E8-60B2-4095-9E07-A841789DB632}"/>
   </bookViews>
   <sheets>
     <sheet name="small_map" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,13 +72,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -393,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A89F6C-4FE6-4F04-A336-C7BDF9887BFF}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="A1:XFD1048576"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +449,7 @@
     <col min="23" max="23" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -486,8 +513,11 @@
       <c r="U1">
         <v>1</v>
       </c>
+      <c r="W1" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -551,8 +581,11 @@
       <c r="U2">
         <v>1</v>
       </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -616,8 +649,11 @@
       <c r="U3">
         <v>1</v>
       </c>
+      <c r="W3" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -681,8 +717,11 @@
       <c r="U4">
         <v>1</v>
       </c>
+      <c r="W4" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -746,8 +785,11 @@
       <c r="U5">
         <v>1</v>
       </c>
+      <c r="W5" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -811,8 +853,11 @@
       <c r="U6">
         <v>0</v>
       </c>
+      <c r="W6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -876,8 +921,11 @@
       <c r="U7">
         <v>1</v>
       </c>
+      <c r="W7" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -941,8 +989,11 @@
       <c r="U8">
         <v>0</v>
       </c>
+      <c r="W8" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1006,8 +1057,11 @@
       <c r="U9">
         <v>1</v>
       </c>
+      <c r="W9" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1071,8 +1125,11 @@
       <c r="U10">
         <v>0</v>
       </c>
+      <c r="W10" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1136,8 +1193,11 @@
       <c r="U11">
         <v>1</v>
       </c>
+      <c r="W11" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1201,8 +1261,11 @@
       <c r="U12">
         <v>1</v>
       </c>
+      <c r="W12" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1266,8 +1329,11 @@
       <c r="U13">
         <v>1</v>
       </c>
+      <c r="W13" s="1">
+        <v>12</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1331,8 +1397,11 @@
       <c r="U14">
         <v>1</v>
       </c>
+      <c r="W14" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1396,8 +1465,11 @@
       <c r="U15">
         <v>1</v>
       </c>
+      <c r="W15" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1460,11 +1532,79 @@
       </c>
       <c r="U16">
         <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <v>13</v>
+      </c>
+      <c r="O18" s="1">
+        <v>14</v>
+      </c>
+      <c r="P18" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>16</v>
+      </c>
+      <c r="R18" s="1">
+        <v>17</v>
+      </c>
+      <c r="S18" s="1">
+        <v>18</v>
+      </c>
+      <c r="T18" s="1">
+        <v>19</v>
+      </c>
+      <c r="U18" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F11:F14 E10:E14 F10:G10 S5:U11 A9:D15 E9:G9 A5:G8 P11:R11 P12:U13 A17:EJ33 A15:J16 V1:EJ16 L14:U16 L1:U4 H5:J10 L5:R10 G11:J15 L11:O13 A1:J4 K1:K16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="F11:F14 E10:E14 F10:G10 S5:U11 A9:D15 E9:G9 A5:G8 P11:R11 P12:U13 A17:EJ17 A15:J16 V1:EJ1 L14:U16 L1:U4 H5:J10 L5:R10 G11:J15 L11:O13 A1:J4 K1:K16 A19:EJ33 A18 C18:EJ18 V3:EJ16 V2 X2:EJ2">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
